--- a/tests/testthat/test_data/48/allWellIds.xlsx
+++ b/tests/testthat/test_data/48/allWellIds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4290b48d2b34c4/Documents/testing_tidyplate/test_data/48/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/48/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A930ED-FC7A-46FE-87C6-96A64B4C69A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A95F0D3-05C3-DA42-8EF6-A1DC49B56B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="allWellIds" sheetId="1" r:id="rId1"/>
@@ -28,163 +28,163 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>F06</t>
   </si>
 </sst>
 </file>
@@ -193,14 +193,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -238,28 +238,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -267,7 +267,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -275,14 +275,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,14 +290,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -305,7 +305,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -313,14 +313,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1027,11 +1027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,181 +1062,181 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>